--- a/PRODUTOS/Mercearia Doce/Mercearia Doce - Sobremesa pronta.xlsx
+++ b/PRODUTOS/Mercearia Doce/Mercearia Doce - Sobremesa pronta.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Doce De Leite Aviação Pote 400g</t>
+          <t>Doce De Abobora C/coco Treno 220g</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6c59d006-80bf-462c-9394-4268b69607f7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8918b5a0-5071-45f3-90a9-d6675d447291.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7896462200538</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Doce De Leite Italac Pt 350g</t>
+          <t>Pêssego Em Calda Metades Crochemore 460g</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2ff0f6cd-e841-4daf-b0fd-a0f055b3271e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c83a2f74-0506-4bb6-a55d-76d2f182a80a.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7898311556346</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Gelatina Sol 20g Uva</t>
+          <t>Pêssego Em Calda Metade Crochemore 400g Zero Açúcar</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 1,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/504d40a2-24a7-4bd3-a178-4bc3fbe829a3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/07f55475-0a01-4de3-8f8d-48b660a8f7bc.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7898311556346</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Doce De Leite La Serenisima 400g</t>
+          <t>Gelatina Sol 20g Uva</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 1,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/303b7cfe-9adc-4abb-8925-39054b8ce937.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/504d40a2-24a7-4bd3-a178-4bc3fbe829a3.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7896005210604</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Goiabada Cepera 500g</t>
+          <t>Gelatina Com Colágeno Dr. Oetker 15g Morango</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4b051fe1-44ce-4fd4-b505-51cf7f6f02df.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/12e66741-bd74-4e65-8d71-7c66a7d99503.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7896005210741</t>
         </is>
       </c>
     </row>
@@ -596,7 +626,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Doce De Leite Tirol 350g</t>
+          <t>Doce Figo Oliveira 400g</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -606,7 +636,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3c796ccd-9c74-4d37-abe7-5a7422faa8a1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e157d19b-6f33-4a3c-b049-860af73768e5.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7896202810782</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ameixa Seca S/caroco Lavioletera 100g</t>
+          <t>Doce De Abobora C/ Coco Oliveira 400g</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b769ebaa-a4ec-466a-ac18-2c50175dd5ed.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3c22858b-158a-4751-94be-f9f4753bfb54.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7896202800431</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Doce De Leite Itambé Lata 395g</t>
+          <t>Doce De Leite Portao Cambui Pt 410g Trad</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 25,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3cd58270-a0ca-4252-a022-4fdcb300d5b3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/873e82a3-6a05-4800-a4ae-618b9b75225a.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7898003281396</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marrom Glacê Predilecta 350g</t>
+          <t>Ameixa Seca S/caroco Lavioletera 100g</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0fd1c199-c0b3-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b769ebaa-a4ec-466a-ac18-2c50175dd5ed.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7891089062736</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Doce De Leite Trad. Cambui 200g</t>
+          <t>Figo Em Calda Cananeia 400gr</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 28,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/110e41ce-0cd1-4a2f-88c6-37f6568284ed.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a3200802-2f15-49c3-ade6-c0cbac329b86.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7898959899157</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Gelatina Com Colágeno Dr. Oetker 15g Morango</t>
+          <t>Goiabada Cascao Cepera 400g</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/12e66741-bd74-4e65-8d71-7c66a7d99503.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f1e2c55e-09e2-4e37-a6e6-850ad003827a.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7896025801301</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Goiabada Cascao Trenô 700g</t>
+          <t>Goiabada Cepera 500g</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e0c8c32e-126e-4791-85d8-0340a07ca8b7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4b051fe1-44ce-4fd4-b505-51cf7f6f02df.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7896025801301</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Goiabada Cascao Cepera 400g</t>
+          <t>Doce De Leite Itambé Lata 395g</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f1e2c55e-09e2-4e37-a6e6-850ad003827a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3cd58270-a0ca-4252-a022-4fdcb300d5b3.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7896051145646</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Doce De Abobora C/ Coco Oliveira 400g</t>
+          <t>Abacaxi Em Calda Rodelas Cananeia 400g</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 29,99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3c22858b-158a-4751-94be-f9f4753bfb54.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ecb41af7-e362-45b6-b2a7-41ea85797af4.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7898624420013</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Abacaxi Em Calda Rodelas Cananeia 400g</t>
+          <t>Ameixa Em Calda Cananeia 400g</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 27,99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ecb41af7-e362-45b6-b2a7-41ea85797af4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/becd41e2-7022-433c-a037-bb5db97208fe.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7898624420013</t>
         </is>
       </c>
     </row>
@@ -866,260 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Gelatina Com Colágeno 15g Dr. Oetker Uva</t>
+          <t>Cereja Calda Marrasquina Cananeia 210g</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1637bee3-6e75-46c7-a87f-dd53cdb30a25.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Sobremesa pronta</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Figo Em Calda Cananeia 400gr</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>R$ 28,99</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a3200802-2f15-49c3-ade6-c0cbac329b86.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Sobremesa pronta</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Cereja Calda Marrasquina Cananeia 210g</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>R$ 18,99</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fda474a8-28fc-4c99-8cc4-0c58c874aa5b.jpg</t>
         </is>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Sobremesa pronta</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Doce Figo Oliveira 400g</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e157d19b-6f33-4a3c-b049-860af73768e5.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Sobremesa pronta</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Doce De Abobora C/coco Treno 220g</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8918b5a0-5071-45f3-90a9-d6675d447291.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Sobremesa pronta</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Doce De Leite Itambe Pastoso 800g</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>R$ 23,99</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/23ad37e4-1fd2-42e1-9af0-1ea57837e6d3.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Sobremesa pronta</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Doce De Leite Portao Cambui Pt 410g Trad</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>R$ 25,99</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/873e82a3-6a05-4800-a4ae-618b9b75225a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Sobremesa pronta</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Ameixa Em Calda Cananeia 400g</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>R$ 27,99</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/becd41e2-7022-433c-a037-bb5db97208fe.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Sobremesa pronta</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Pêssego Em Calda Metades Crochemore 460g</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c83a2f74-0506-4bb6-a55d-76d2f182a80a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Sobremesa pronta</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Pêssego Em Calda Metade Crochemore 400g Zero Açúcar</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/07f55475-0a01-4de3-8f8d-48b660a8f7bc.jpg</t>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7898959899096</t>
         </is>
       </c>
     </row>
